--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC CarePlan Referral</t>
+    <t>轉介單－服務種類</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>轉診單中欲申請之服務種類。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 CarePlan Resource，以呈現轉診單中欲申請之服務種類。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -801,7 +801,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>照顧計畫的狀態。[應填入以下字串之一：active | on-hold | completed | cancelled | entered-in-error | unknown]</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -829,7 +829,7 @@
     <t>CarePlan.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | option</t>
+    <t>照顧計畫的意圖。[應填入以下字串之一：proposal | plan | order | option]</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -857,7 +857,7 @@
 </t>
   </si>
   <si>
-    <t>Type of plan</t>
+    <t>照顧計畫的分類。</t>
   </si>
   <si>
     <t>Type of plan.</t>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>AssessPlan</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
   </si>
   <si>
     <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
@@ -2226,15 +2229,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2245,26 +2248,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.96484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="173.13671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="145.83984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6976,16 +6979,16 @@
         <v>268</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>271</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6995,7 +6998,7 @@
         <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>20</v>
@@ -7063,10 +7066,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7092,10 +7095,10 @@
         <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7146,7 +7149,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7175,10 +7178,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7204,14 +7207,14 @@
         <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7260,7 +7263,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7281,7 +7284,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7289,14 +7292,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7315,17 +7318,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7374,7 +7377,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -7389,24 +7392,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7515,10 +7518,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7629,10 +7632,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7658,7 +7661,7 @@
         <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>202</v>
@@ -7743,10 +7746,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7857,10 +7860,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7971,10 +7974,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8085,10 +8088,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8111,16 +8114,16 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8170,7 +8173,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8185,24 +8188,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8311,10 +8314,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8425,10 +8428,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8454,7 +8457,7 @@
         <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>202</v>
@@ -8539,10 +8542,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8653,10 +8656,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8767,10 +8770,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8881,14 +8884,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8907,19 +8910,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8968,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8983,24 +8986,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9109,10 +9112,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9223,10 +9226,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9249,16 +9252,16 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9308,7 +9311,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9317,7 +9320,7 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>99</v>
@@ -9326,21 +9329,21 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9363,23 +9366,23 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>20</v>
@@ -9424,7 +9427,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9433,7 +9436,7 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>99</v>
@@ -9442,25 +9445,25 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9479,13 +9482,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9536,7 +9539,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9551,13 +9554,13 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9565,10 +9568,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9591,16 +9594,16 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9650,7 +9653,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9665,13 +9668,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
@@ -9679,10 +9682,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9791,10 +9794,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9905,10 +9908,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9934,7 +9937,7 @@
         <v>124</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>202</v>
@@ -10019,10 +10022,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10133,10 +10136,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10247,10 +10250,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10361,10 +10364,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10387,16 +10390,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10446,7 +10449,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10475,10 +10478,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10587,10 +10590,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10701,10 +10704,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10730,7 +10733,7 @@
         <v>124</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>202</v>
@@ -10815,10 +10818,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10929,10 +10932,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11043,10 +11046,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11157,10 +11160,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11183,17 +11186,17 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11242,7 +11245,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11257,13 +11260,13 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>20</v>
@@ -11271,10 +11274,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11297,19 +11300,19 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11358,7 +11361,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11373,24 +11376,24 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11499,10 +11502,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11613,10 +11616,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11642,7 +11645,7 @@
         <v>124</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>202</v>
@@ -11727,10 +11730,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11841,10 +11844,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11955,10 +11958,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12069,10 +12072,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12095,19 +12098,19 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12156,7 +12159,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12171,7 +12174,7 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>20</v>
@@ -12185,10 +12188,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12211,19 +12214,19 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12272,7 +12275,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12290,21 +12293,21 @@
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12413,10 +12416,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12527,10 +12530,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12556,7 +12559,7 @@
         <v>124</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>202</v>
@@ -12641,10 +12644,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12755,10 +12758,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12869,10 +12872,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12983,10 +12986,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13009,17 +13012,17 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13068,7 +13071,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13080,13 +13083,13 @@
         <v>20</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
@@ -13097,10 +13100,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13209,10 +13212,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13323,14 +13326,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13352,10 +13355,10 @@
         <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>134</v>
@@ -13410,7 +13413,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13439,10 +13442,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13468,13 +13471,13 @@
         <v>268</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13503,10 +13506,10 @@
         <v>273</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>20</v>
@@ -13524,7 +13527,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13553,10 +13556,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13579,19 +13582,19 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -13640,7 +13643,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13655,10 +13658,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>20</v>
@@ -13669,10 +13672,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13695,19 +13698,19 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>20</v>
@@ -13756,7 +13759,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13774,21 +13777,21 @@
         <v>20</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13811,19 +13814,19 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -13872,7 +13875,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13881,16 +13884,16 @@
         <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>20</v>
@@ -13901,10 +13904,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13927,17 +13930,17 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -13986,7 +13989,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13995,7 +13998,7 @@
         <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>99</v>
@@ -14004,7 +14007,7 @@
         <v>20</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>20</v>
@@ -14015,10 +14018,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14127,10 +14130,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14241,14 +14244,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14270,10 +14273,10 @@
         <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>134</v>
@@ -14328,7 +14331,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14357,10 +14360,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14386,14 +14389,14 @@
         <v>107</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
@@ -14421,10 +14424,10 @@
         <v>143</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>20</v>
@@ -14442,7 +14445,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14460,7 +14463,7 @@
         <v>20</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>20</v>
@@ -14471,10 +14474,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14497,17 +14500,17 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>182</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>20</v>
@@ -14556,7 +14559,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14585,10 +14588,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14617,13 +14620,13 @@
         <v>187</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>189</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -14672,7 +14675,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14701,10 +14704,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14730,16 +14733,16 @@
         <v>268</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -14768,7 +14771,7 @@
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
@@ -14786,7 +14789,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14801,24 +14804,24 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14844,13 +14847,13 @@
         <v>268</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14879,10 +14882,10 @@
         <v>273</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>20</v>
@@ -14900,7 +14903,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14915,7 +14918,7 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>20</v>
@@ -14929,10 +14932,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14955,16 +14958,16 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15014,7 +15017,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15029,7 +15032,7 @@
         <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>20</v>
@@ -15043,10 +15046,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15069,17 +15072,17 @@
         <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>20</v>
@@ -15128,7 +15131,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15146,7 +15149,7 @@
         <v>20</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>20</v>
@@ -15157,10 +15160,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15186,16 +15189,16 @@
         <v>107</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -15223,10 +15226,10 @@
         <v>143</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>20</v>
@@ -15244,7 +15247,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>87</v>
@@ -15259,24 +15262,24 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15302,13 +15305,13 @@
         <v>268</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15358,7 +15361,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15373,7 +15376,7 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>20</v>
@@ -15387,10 +15390,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15413,70 +15416,70 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF116" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q116" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15491,10 +15494,10 @@
         <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>20</v>
@@ -15505,10 +15508,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15531,17 +15534,17 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
@@ -15590,7 +15593,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15605,24 +15608,24 @@
         <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15645,19 +15648,19 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -15706,7 +15709,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15724,21 +15727,21 @@
         <v>20</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15761,19 +15764,19 @@
         <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>20</v>
@@ -15822,7 +15825,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15837,24 +15840,24 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15877,13 +15880,13 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15913,16 +15916,16 @@
         <v>273</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
@@ -15932,7 +15935,7 @@
         <v>137</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15950,24 +15953,24 @@
         <v>20</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>20</v>
@@ -15989,13 +15992,13 @@
         <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16046,7 +16049,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16064,25 +16067,25 @@
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16101,17 +16104,17 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -16160,7 +16163,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16178,21 +16181,21 @@
         <v>20</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16215,13 +16218,13 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16272,7 +16275,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16290,21 +16293,21 @@
         <v>20</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16330,10 +16333,10 @@
         <v>124</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16384,7 +16387,7 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -16402,21 +16405,21 @@
         <v>20</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16439,17 +16442,17 @@
         <v>20</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>20</v>
@@ -16498,7 +16501,7 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16513,16 +16516,16 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2229,15 +2229,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2248,26 +2248,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.43359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,7 +680,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlanReferral.xlsx
+++ b/docs/StructureDefinition-LTCCarePlanReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
